--- a/AAII_Financials/Quarterly/TNCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNCP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>TNCP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,22 +746,25 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -765,28 +772,31 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -794,14 +804,17 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +965,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -965,11 +992,14 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -994,11 +1024,14 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1036,11 +1070,14 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,11 +1102,14 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1137,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1123,11 +1166,14 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1233,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1210,11 +1262,14 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1239,11 +1294,14 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1384,11 +1454,14 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1413,11 +1486,14 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1521,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1471,45 +1550,51 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1557,14 +1644,17 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1682,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1746,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1778,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,14 +1804,17 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1760,14 +1868,17 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1934,14 +2060,17 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1983,20 +2114,23 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,25 +2158,28 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2053,8 +2190,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,14 +2216,17 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2382,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2250,14 +2408,17 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2556,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2408,14 +2582,17 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2684,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2524,14 +2710,17 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2748,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2619,11 +2814,14 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,11 +2860,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2835,11 +3052,14 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3197,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3122,11 +3368,14 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,7 +3432,10 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>TNCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,67 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,8 +773,8 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -769,20 +782,26 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,8 +811,8 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -801,20 +820,26 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +1017,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -995,11 +1048,17 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,11 +1086,17 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1073,11 +1140,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,11 +1178,17 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,8 +1219,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,11 +1254,17 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1333,14 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1265,11 +1368,17 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1297,11 +1406,17 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1457,11 +1596,17 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,11 +1634,17 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1675,14 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1553,48 +1710,60 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1647,14 +1820,20 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1807,14 +2010,20 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1871,14 +2086,20 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2063,14 +2314,20 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,16 +2356,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2117,8 +2378,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2126,11 +2387,17 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2161,8 +2428,14 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2181,20 +2454,26 @@
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2219,14 +2498,20 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,8 +2694,14 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2411,14 +2726,20 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +2900,14 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2585,14 +2932,20 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,8 +3052,14 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2713,14 +3084,20 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,45 +3128,57 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2817,11 +3206,17 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,11 +3260,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3055,11 +3488,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3200,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3371,11 +3862,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,7 +3938,13 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
